--- a/describe.xlsx
+++ b/describe.xlsx
@@ -451,11 +451,7 @@
           <t>布布種子</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>有一副嬌氣的外表，但生性比較頑皮，走路時總愛一跳一跳的前進，從小就有當醫生的夢想。</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -463,11 +459,7 @@
           <t>布布草</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>布布種子的進化形態，不再像種子時代那麼嬌弱粘人，變成了堅強的戰士。</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -475,11 +467,7 @@
           <t>布布花</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>布布草的進化形態，終於修成正果，綻放豔麗花朵的同時，也放射出它巨大的能量。</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -487,11 +475,7 @@
           <t>小火猴</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>身手非常敏捷，有點害羞，內心蘊藏着對戰鬥的嚮往，喜歡在火山區上躥下跳地收集火山灰玩耍。</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -499,11 +483,7 @@
           <t>烈火猴</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>小火猴的進化形態，速度方面更勝以往，進攻時會靈巧地避免各種危險，因而成爲主人的得力助手。</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -511,11 +491,7 @@
           <t>烈焰猩猩</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>烈火猴的進化形態，有着驚人的力量，長期累積的戰鬥經驗使其成熟起來，成爲強悍無敵的鬥士。</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -523,11 +499,7 @@
           <t>伊優</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>外表比較奇特，求勝心極強，不管是和誰戰鬥都會竭盡全力，喜歡在海水中自由自在的玩耍。</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -535,11 +507,7 @@
           <t>尤里安</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>伊優的進化形態，用格鬥天才來形容它一點都不過分，超強的特攻特防天賦，可以讓它成長爲無敵的戰士。</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -547,11 +515,7 @@
           <t>巴魯斯</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>尤里安的進化形態，缺少水分對於它來說可不大好哦，只要讓它回家喝飽水，它就是戰場上最強的戰士。</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -559,11 +523,7 @@
           <t>皮皮</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>外貌和性格都很可愛，喜歡熱鬧的氣氛，兩隻搖搖晃晃的大耳朵是它強有力的攻擊武器。</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -571,11 +531,7 @@
           <t>比波</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>皮皮的進化形態，它的速度非常快，總是成羣的出現，形成一片粉色的風景線。</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -583,11 +539,7 @@
           <t>波克爾</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>比波的進化形態，在攻擊和速度上都有出衆的成長，緋紅的面頰是它處於友好狀態的信號。</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -595,11 +547,7 @@
           <t>毛毛</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>身型小巧玲瓏，比較調皮，傻乎乎的非常莽撞，經常突然性頭暈。</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -607,11 +555,7 @@
           <t>卡洛</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>毛毛的進化形態，各方面成長都比較平均，羽翼豐滿，內心對搖滾樂有着奇妙的衝動，甚至想出唱片。</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -619,11 +563,7 @@
           <t>巴洛卡</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>卡洛的進化形態，有着爆炸頭厚嘴脣的拉風形象，整體能力提高，速度的成長尤爲突出。</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -631,11 +571,7 @@
           <t>小瑩蜂</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>可愛活潑的機靈鬼，行動非常迅速，怕生、敏感，要捉住它可要好好花點心思呢。</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -643,11 +579,7 @@
           <t>迅黃蜂</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>小瑩蜂的進化形態，迅速敏捷的特點仍然非常鮮明，用它最喜歡的鮮花吸引它會立刻出現，不過會偷偷躲在遠處。</t>
-        </is>
-      </c>
+      <c r="B18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -655,11 +587,7 @@
           <t>靈翼蜂</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>迅黃蜂的進化形態，六翼天使一般的聖潔形象使它在全族當中受到尊敬，必須不斷的修煉、成長，迅黃蜂纔有機會成長爲靈翼蜂。</t>
-        </is>
-      </c>
+      <c r="B19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -667,11 +595,7 @@
           <t>比比鼠</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>玲瓏小巧，很喜歡吃甜的東西，生氣時會放出電流；生活在黑暗的地方，眼睛已經退化，嗅覺異常發達。</t>
-        </is>
-      </c>
+      <c r="B20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -679,11 +603,7 @@
           <t>閃電鼠</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>比比鼠的進化形態，脫離初始的稚嫩狀態，潛在的攻擊能力開始成長。</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -691,11 +611,7 @@
           <t>天雷鼠</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>閃電鼠的進化形態，攻擊能力的潛能全部得到激發，呈現出雷電系猛獸的體態和攻擊特點。</t>
-        </is>
-      </c>
+      <c r="B22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -703,11 +619,7 @@
           <t>莫比</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>憨憨可掬的莫比是力量型鬥士，喜歡開鑿特別堅硬的物體。</t>
-        </is>
-      </c>
+      <c r="B23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -715,11 +627,7 @@
           <t>格格爾</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>莫比的進化形態，忠誠踏實，沉默穩重。也許它不夠靈活，也許它不夠輕盈，但是它會一直堅守在主人身邊。</t>
-        </is>
-      </c>
+      <c r="B24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -727,11 +635,7 @@
           <t>魯加斯</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>格格爾的進化形態，穩如山，狠如虎。龐大的身軀配合堅硬的體表，在戰鬥</t>
-        </is>
-      </c>
+      <c r="B25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -739,11 +643,7 @@
           <t>仙人球</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>渾身長滿了尖刺，有一點高傲，特長是喜歡使用一些干擾對方的技能。</t>
-        </is>
-      </c>
+      <c r="B26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -751,11 +651,7 @@
           <t>仙人掌</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>仙人球的進化形態，特攻和特防方面比較擅長，兇橫的外表也讓它的攻擊更加具有威懾力。</t>
-        </is>
-      </c>
+      <c r="B27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -787,11 +683,7 @@
           <t>果凍鴨</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>果凍鴨是一隻具有透明能力的精靈，喜歡惡作劇，身上有天然形成的果凍狀水紋。</t>
-        </is>
-      </c>
+      <c r="B31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -799,11 +691,7 @@
           <t>波浪鴨</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>果凍鴨的進化形態，身上的水紋變成了波浪形狀，一直嚮往在海上衝浪。</t>
-        </is>
-      </c>
+      <c r="B32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -811,11 +699,7 @@
           <t>水晶鴨</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>波浪鴨的進化形態，背上長出了水晶，通過水晶的能量使其攻擊力得到極大的提升。</t>
-        </is>
-      </c>
+      <c r="B33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -847,11 +731,7 @@
           <t>依依</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>草系精靈中的搗蛋鬼，它最大的興趣就是捉弄他人。身軀嬌小的它，在叢林間神出鬼沒、穿梭自如。</t>
-        </is>
-      </c>
+      <c r="B37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -859,11 +739,7 @@
           <t>依丁絲</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>依依的進化形態，成長後的搗蛋鬼絲毫沒有成熟，還是如同以往那樣喜歡捉弄他人。不要看它個子小，它的攻擊力可是草系精靈中數一數二的。</t>
-        </is>
-      </c>
+      <c r="B38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -871,11 +747,7 @@
           <t>依卡萊恩</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>依丁絲的進化形態，搗蛋鬼成了愛猜謎語的小機靈，各種益智類的遊戲都是它的最愛。它最討厭欺凌弱小，憤怒時具有極強的殺傷力。</t>
-        </is>
-      </c>
+      <c r="B39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1011,11 +883,7 @@
           <t>格林</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>聽覺非常靈敏，深褐甲殼是它的自我保護系統，喜歡周遊世界，沒人知道它下一次會去哪裏旅行。</t>
-        </is>
-      </c>
+      <c r="B56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1023,11 +891,7 @@
           <t>格力姆</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>格林的進化形態，頑皮的本質開始顯現，不再膽小地龜縮在洞中，喜歡四處玩耍、惡作劇，弄得周圍的精靈們煩惱不堪。</t>
-        </is>
-      </c>
+      <c r="B57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1035,11 +899,7 @@
           <t>格魯奇高</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>格力姆的進化形態，強悍的體魄造就了它強有力的攻擊力和優秀的防禦力，會爲了扞衛自己的族羣而拚死戰鬥。</t>
-        </is>
-      </c>
+      <c r="B58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1047,11 +907,7 @@
           <t>迪達</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>愛享受的精靈，喜歡泡在溫泉中，享受溫暖水流的衝擊，放鬆身心，緩解躁動的怒火。</t>
-        </is>
-      </c>
+      <c r="B59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1059,11 +915,7 @@
           <t>迪爾克</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>迪達的進化形態，自身的高溫讓它脾氣暴躁，只有舒適的溫泉才能暫緩它的暴躁不安。憤怒時會爆發出極強的殺傷力。</t>
-        </is>
-      </c>
+      <c r="B60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1343,11 +1195,7 @@
           <t>西塔</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>赫爾卡人早期實驗開發的精靈之一，具有強大的特攻能力，是具有智能系統和自我學習系統的機械戰士。</t>
-        </is>
-      </c>
+      <c r="B95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -1355,11 +1203,7 @@
           <t>鐵達斯</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>西塔的升級版本，特攻能力極強。被破壞了進化系統的西塔，在派特博士的“人格重修”改造後，升級路徑發生微妙的變化，成爲功能性機械精靈。</t>
-        </is>
-      </c>
+      <c r="B96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -1367,11 +1211,7 @@
           <t>雷吉歐斯</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>鐵達斯的升級版本，成爲集資源分佈探查、礦產採集分析、戰鬥護衛爲一體的超強智能機械精靈。</t>
-        </is>
-      </c>
+      <c r="B97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -1475,11 +1315,7 @@
           <t>派派</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>派特博士設計的新型機械精靈，具有豐富的情感，精神波是它的絕技。</t>
-        </is>
-      </c>
+      <c r="B110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -1487,11 +1323,7 @@
           <t>派魯克</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>派派的進化形態，搭載了強攻部件，使得它在攻擊力上有所突破。</t>
-        </is>
-      </c>
+      <c r="B111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -1499,11 +1331,7 @@
           <t>派魯基達</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>派魯克的進化形態，新增了技能修復裝置，在整體性能上也有了較大的提升。</t>
-        </is>
-      </c>
+      <c r="B112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -1647,11 +1475,7 @@
           <t>納格</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>精靈中的膽小鬼，卻擁有極強的防禦能力，一旦遇到危險自身潛在的防禦能力就會大大提升。</t>
-        </is>
-      </c>
+      <c r="B130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -1659,11 +1483,7 @@
           <t>納奇魯</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>納格的進化形態，雖然有着堅硬的外殼，但是膽小的個性絲毫沒有改變。它的夢想就是去茫茫沙漠中探險。</t>
-        </is>
-      </c>
+      <c r="B131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -1671,11 +1491,7 @@
           <t>納多雷</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>納奇魯的進化形態，長期吸收着大地精華的它防禦能力無可匹敵。</t>
-        </is>
-      </c>
+      <c r="B132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -1683,11 +1499,7 @@
           <t>奇洛</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>愛旅行的精靈，從出生的那一刻便開始了它持續一生的旅行。走到陸地的盡頭，走到海洋的深淵，走到進化那一天的到來。</t>
-        </is>
-      </c>
+      <c r="B133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -1695,11 +1507,7 @@
           <t>傑拉特</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>奇洛的進化形態，防禦能力突出。沉默的傑拉特不再盲目地旅行，它開始了創造之旅，尋找最佳的材料，構建自己的巢穴。</t>
-        </is>
-      </c>
+      <c r="B134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -1707,11 +1515,7 @@
           <t>塔奇拉頓</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>傑拉特的進化形態，強健的體魄，讓它具有無比強大的防禦力，以王者的形態出現在人們的眼前。</t>
-        </is>
-      </c>
+      <c r="B135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -1903,11 +1707,7 @@
           <t>索拉</t>
         </is>
       </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>冰雪中美麗的精靈索拉，機靈聰穎，天真可愛，活潑調皮，數量非常稀少，特攻能力突出。</t>
-        </is>
-      </c>
+      <c r="B159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -1915,11 +1715,7 @@
           <t>赫拉絲</t>
         </is>
       </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>索拉的進化形態，溫順嬌美，非常愛乾淨，不生氣的時候是個恬靜的美人，發起脾氣來具有驚人的爆發力。</t>
-        </is>
-      </c>
+      <c r="B160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -1927,11 +1723,7 @@
           <t>阿克希亞</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>赫拉絲的進化形態，冰天雪地中的靈獸，身手矯健，姿態優美，攻擊力極強。</t>
-        </is>
-      </c>
+      <c r="B161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -1979,11 +1771,7 @@
           <t>林克</t>
         </is>
       </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>聰明的林克喜歡熱鬧，可是膽小的它總是躲在幽暗的地方期待着有趣的事情在眼前發生，期待着被人關心。</t>
-        </is>
-      </c>
+      <c r="B167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -1991,11 +1779,7 @@
           <t>林斯奇</t>
         </is>
       </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>林克的進化形態，胸口頗具代表性的“紅寶石”開始生長，這裏孕育着大量的冰雪能量，爲它進一步的成長奠定基礎。</t>
-        </is>
-      </c>
+      <c r="B168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -2003,11 +1787,7 @@
           <t>布林克斯</t>
         </is>
       </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>林斯奇的進化形態，生活在寒冷陰暗環境的它堅強、果敢，作爲攻擊和防禦工具的冰爪也已發育完成，因而變得更加強大。</t>
-        </is>
-      </c>
+      <c r="B169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -2015,11 +1795,7 @@
           <t>玄冰獸</t>
         </is>
       </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>生存在冰雪環境的精靈，具有攻擊性，平時的活動區域爲積雪下方的冰層，愛羣居，砸穿冰層築巢，以玄冰能量爲食。</t>
-        </is>
-      </c>
+      <c r="B170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -2027,11 +1803,7 @@
           <t>急凍獸</t>
         </is>
       </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>玄冰獸的進化形態，在冰湖當中移動速度極快，攻擊力強，好鬥；頭部的玄冰結晶是非常好的能源物資。</t>
-        </is>
-      </c>
+      <c r="B171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -2079,11 +1851,7 @@
           <t>尼爾</t>
         </is>
       </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>長着一副與衆不同的外貌，有着各種奇特的能力，十分害怕孤單，經常變化成其他精靈的樣子和它們一起玩耍。</t>
-        </is>
-      </c>
+      <c r="B177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -2091,11 +1859,7 @@
           <t>菲斯利</t>
         </is>
       </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>尼爾的進化形態，特攻能力的優勢開始體現，它所學會的技能都非常奇特。</t>
-        </is>
-      </c>
+      <c r="B178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -2103,11 +1867,7 @@
           <t>艾斯菲亞</t>
         </is>
       </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>菲斯利的進化形態，外型上有巨大變化，進化後的它能夠去到更遙遠的宇宙。</t>
-        </is>
-      </c>
+      <c r="B179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -2115,11 +1875,7 @@
           <t>悠悠</t>
         </is>
       </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>夢幻的分支進化精靈，喜歡有人陪它玩耍，在大自然中非常少見，所以也尤其害怕孤單，希望有一個可以讓它永遠依靠的家。</t>
-        </is>
-      </c>
+      <c r="B180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -2151,11 +1907,7 @@
           <t>帕諾</t>
         </is>
       </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>爲了獎勵在帕諾地區通過各個霸主精靈考驗的訓練家，派特博士製作了精靈帕諾，它的太陽能板儲存大量的電力，可幫助訓練家完成各種任務。</t>
-        </is>
-      </c>
+      <c r="B184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -2163,11 +1915,7 @@
           <t>帕拉絲</t>
         </is>
       </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>帕諾的進化形態，輕盈的體態一成不變，儲電能力進一步提升，智能和戰鬥力得到極大的提升，成長爲一名英勇的戰士。</t>
-        </is>
-      </c>
+      <c r="B185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -2175,11 +1923,7 @@
           <t>帕爾西絲</t>
         </is>
       </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>帕拉絲的進化形態，身形輕盈，酷愛吃蜂膠，在精靈中有着大黃蜂的美稱。因爲太陽能的大量儲蓄使它擁有光鮮的外表，戰鬥能力也隨之不斷提升。</t>
-        </is>
-      </c>
+      <c r="B186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
